--- a/calendario.xlsx
+++ b/calendario.xlsx
@@ -864,7 +864,7 @@
     <row r="2" ht="33.75" customHeight="1">
       <c r="B2" s="23" t="inlineStr">
         <is>
-          <t>7-D</t>
+          <t>1-A</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="14" t="inlineStr">
         <is>
-          <t>12-Dic</t>
+          <t>13-Dic</t>
         </is>
       </c>
       <c r="G8" s="14" t="inlineStr">
@@ -964,40 +964,40 @@
     <row r="9" ht="50.1" customHeight="1">
       <c r="A9" s="12" t="inlineStr">
         <is>
-          <t>ADMINISTRACION DEL TIEMPO</t>
+          <t>FORMACION SOCIOCULTURAL</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
           <t>Lunes 30 de Septiembre
-17:40
-c-106</t>
+11:00
+c-101</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 24 de Octubre
-17:40
-c-116</t>
+          <t>Lunes 28 de Octubre
+11:00
+c-101</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
           <t>Lunes 25 de Noviembre
-17:40
-c-106</t>
+11:00
+c-101</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre
-17:40
-c-116</t>
+          <t>Lunes 2 de Diciembre
+11:00
+c-101</t>
         </is>
       </c>
       <c r="F9" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1012,40 +1012,34 @@
     <row r="10" ht="50.1" customHeight="1">
       <c r="A10" s="13" t="inlineStr">
         <is>
-          <t>INGENIERIA ECONOMICA</t>
-        </is>
-      </c>
-      <c r="B10" s="21" t="inlineStr">
-        <is>
-          <t>Viernes 27 de Septiembre
-17:40
-lab 4</t>
-        </is>
-      </c>
+          <t>DESARROLLO DE HABILIDADES</t>
+        </is>
+      </c>
+      <c r="B10" s="21" t="n"/>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 30 de Octubre
-16:30
-lab 2</t>
+          <t>Martes 29 de Octubre
+9:50
+c-101</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 22 de Noviembre
-17:40
-lab 4</t>
+          <t>Martes 26 de Noviembre
+9:50
+c-101</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Viernes 29 de Noviembre
-17:40
-lab 4</t>
+          <t>Martes 3 de Diciembre
+9:50
+c-101</t>
         </is>
       </c>
       <c r="F10" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1060,40 +1054,40 @@
     <row r="11" ht="50.1" customHeight="1">
       <c r="A11" s="17" t="inlineStr">
         <is>
-          <t>OPTATIVA ELECTRONICA</t>
+          <t xml:space="preserve">EXPRESION ORAL Y ESCRITA </t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Jueves 3 de Octubre
-19:20
-lab 2</t>
+          <t>Lunes 30 de Septiembre
+7:00
+c-101</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Lunes 28 de Octubre
-19:20
-lab 6</t>
+          <t>Jueves 24 de Octubre
+7:50
+c-101</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
           <t>Jueves 28 de Noviembre
-19:20
-lab 2</t>
+7:50
+c-101</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
         <is>
-          <t>Lunes 2 de Diciembre
-19:20
-lab 6</t>
+          <t>Jueves 28 de Noviembre
+7:50
+c-101</t>
         </is>
       </c>
       <c r="F11" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1108,40 +1102,40 @@
     <row r="12" ht="50.1" customHeight="1">
       <c r="A12" s="13" t="inlineStr">
         <is>
-          <t>MODELADO DE PROCESOS</t>
+          <t>FUNDAMENTOS DE TI</t>
         </is>
       </c>
       <c r="B12" s="20" t="inlineStr">
         <is>
-          <t>Martes 1 de Octubre
-19:20
-lab 4</t>
+          <t>Jueves 3 de Octubre
+9:00
+lab 2</t>
         </is>
       </c>
       <c r="C12" s="20" t="inlineStr">
         <is>
-          <t>Viernes 25 de Octubre
-19:20
-lab 2</t>
+          <t>Miercoles 30 de Octubre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="D12" s="20" t="inlineStr">
         <is>
-          <t>Martes 26 de Noviembre
-19:20
-lab 4</t>
+          <t>Miercoles 27 de Noviembre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="E12" s="20" t="inlineStr">
         <is>
-          <t>Martes 3 de Diciembre
-19:20
-lab 4</t>
+          <t>Miercoles 27 de Noviembre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="F12" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1156,37 +1150,47 @@
     <row r="13" ht="50.1" customHeight="1">
       <c r="A13" s="12" t="inlineStr">
         <is>
-          <t>INGLES</t>
+          <t>FUNDAMENTOS DE REDES</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Miercoles 2 de Octubre
+11:00
+lab 1</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Viernes 25 de Octubre
+11:00
+lab 5</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Miercoles 27 de Noviembre
+11:00
+lab 1</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Jueves 28 de Noviembre
+7:00
+lab 4</t>
         </is>
       </c>
       <c r="F13" s="16" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Jueves 12 de Diciembre
+Pendiente horario y laboratorio</t>
         </is>
       </c>
       <c r="G13" s="16" t="inlineStr">
         <is>
-          <t>De acuerdo a la coordinación de Inglés</t>
+          <t>Viernes 13 de Diciembre
+Pendiente horario y laboratorio</t>
         </is>
       </c>
       <c r="H13" s="4" t="n"/>
@@ -1194,40 +1198,40 @@
     <row r="14" ht="50.1" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
         <is>
-          <t>PROGRAMACION DE APLICACIONES</t>
+          <t>METODOLOGIA DE LA PROGRAMACION</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 2 de Octubre
-17:40
-lab 2</t>
+          <t>Viernes 27 de Septiembre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Martes 29 de Octubre
-16:00
-lab 4</t>
+          <t>Viernes 25 de Octubre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 27 de Noviembre
-17:40
-lab 2</t>
+          <t>Viernes 22 de Noviembre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Miercoles 27 de Noviembre
-17:40
-lab 2</t>
+          <t>Viernes 29 de Noviembre
+9:00
+lab 6</t>
         </is>
       </c>
       <c r="F14" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1242,40 +1246,40 @@
     <row r="15" ht="50.1" customHeight="1">
       <c r="A15" s="12" t="inlineStr">
         <is>
-          <t>MATEMATICAS PARA TI</t>
+          <t>ALGEBRA LINEAL</t>
         </is>
       </c>
       <c r="B15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 3 de Octubre
-16:30
-lab 7</t>
+          <t>Lunes 30 de Septiembre
+9:00
+c-101</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 24 de Octubre
-16:30
-lab 7</t>
+          <t>Lunes 28 de Octubre
+9:00
+c-101</t>
         </is>
       </c>
       <c r="D15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre
-16:30
-lab 7</t>
+          <t>Viernes 22 de Noviembre
+7:00
+c-101</t>
         </is>
       </c>
       <c r="E15" s="16" t="inlineStr">
         <is>
-          <t>Jueves 28 de Noviembre
-16:30
-lab 7</t>
+          <t>Lunes 2 de Diciembre
+9:00
+c-101</t>
         </is>
       </c>
       <c r="F15" s="16" t="inlineStr">
         <is>
-          <t>Miercoles 11 de Diciembre
+          <t>Jueves 12 de Diciembre
 Pendiente horario y laboratorio</t>
         </is>
       </c>
@@ -1288,13 +1292,41 @@
       <c r="H15" s="4" t="n"/>
     </row>
     <row r="16" ht="48" customHeight="1">
-      <c r="A16" s="15" t="n"/>
-      <c r="B16" s="21" t="n"/>
-      <c r="C16" s="21" t="n"/>
-      <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
-      <c r="F16" s="16" t="n"/>
-      <c r="G16" s="16" t="n"/>
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>INGLES</t>
+        </is>
+      </c>
+      <c r="B16" s="21" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
+      <c r="C16" s="21" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
+      <c r="F16" s="16" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
+      <c r="G16" s="16" t="inlineStr">
+        <is>
+          <t>De acuerdo a la coordinación de Inglés</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="48" customHeight="1">
       <c r="A17" s="12" t="n"/>
